--- a/Trading/global_setting/config_trading.xlsx
+++ b/Trading/global_setting/config_trading.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="info_sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="仁睿价值精选1号" sheetId="4" r:id="rId2"/>
-    <sheet name="宣夜惠盈1号" sheetId="5" r:id="rId3"/>
+    <sheet name="SLA626" sheetId="4" r:id="rId2"/>
+    <sheet name="SGS958" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>产品名称</t>
   </si>
@@ -98,24 +98,6 @@
   </si>
   <si>
     <t>code</t>
-  </si>
-  <si>
-    <t>510880.SH</t>
-  </si>
-  <si>
-    <t>513500.SH</t>
-  </si>
-  <si>
-    <t>513080.SH</t>
-  </si>
-  <si>
-    <t>513310.SH</t>
-  </si>
-  <si>
-    <t>513290.SH</t>
-  </si>
-  <si>
-    <t>513100.SH</t>
   </si>
 </sst>
 </file>
@@ -128,7 +110,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,13 +123,6 @@
       <color indexed="8"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -614,133 +589,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -754,7 +729,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
@@ -1071,7 +1046,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -1256,7 +1231,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1288,47 +1263,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Trading/global_setting/config_trading.xlsx
+++ b/Trading/global_setting/config_trading.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="info_sheet" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>产品名称</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>code</t>
+  </si>
+  <si>
+    <t>002979</t>
   </si>
 </sst>
 </file>
@@ -732,6 +735,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1045,7 +1051,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -1228,13 +1234,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="2" max="2" width="13.25" customWidth="1"/>
   </cols>
@@ -1251,7 +1257,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>601519</v>
+        <v>301122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Trading/global_setting/config_trading.xlsx
+++ b/Trading/global_setting/config_trading.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_new\Trading\global_setting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93BD5B5-5DD6-4820-BB26-6C010159600D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C291B2-82BD-4733-AAA1-ECD026663BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info_sheet" sheetId="1" r:id="rId1"/>
@@ -438,8 +438,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -482,7 +482,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>5970000</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
@@ -602,7 +602,7 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>9</v>
@@ -621,10 +621,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -638,17 +638,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>300445</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>301122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
+      <c r="A2" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Trading/global_setting/config_trading.xlsx
+++ b/Trading/global_setting/config_trading.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_new\Trading\global_setting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_new2\Trading\global_setting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C291B2-82BD-4733-AAA1-ECD026663BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0968C26-A7DE-4DC0-98CB-824966A18E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1935" yWindow="1905" windowWidth="27630" windowHeight="14310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info_sheet" sheetId="1" r:id="rId1"/>
@@ -64,9 +64,6 @@
     <t>auto</t>
   </si>
   <si>
-    <t xml:space="preserve"> 09:30:00,10:30:00</t>
-  </si>
-  <si>
     <t>高毅振英1号</t>
   </si>
   <si>
@@ -104,13 +101,17 @@
   </si>
   <si>
     <t>code</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 09:30:00,10:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +128,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -165,9 +174,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -439,7 +446,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -482,10 +489,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>5970000</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>839236</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="F2" s="4">
         <v>0.61805555555555602</v>
@@ -493,10 +500,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -504,8 +511,8 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
+      <c r="E3" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="F3" s="4">
         <v>0.61805555555555602</v>
@@ -513,10 +520,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
@@ -524,8 +531,8 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="F4" s="4">
         <v>0.61805555555555602</v>
@@ -533,10 +540,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -544,8 +551,8 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="F5" s="4">
         <v>0.61805555555555602</v>
@@ -553,10 +560,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
@@ -564,8 +571,8 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="F6" s="4">
         <v>0.61805555555555602</v>
@@ -573,10 +580,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -584,8 +591,8 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
+      <c r="E7" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="F7" s="4">
         <v>0.61805555555555602</v>
@@ -593,19 +600,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8">
-        <v>800000</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="F8" s="4">
         <v>0.61805555555555602</v>
@@ -621,7 +628,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A3"/>
@@ -634,11 +641,8 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -659,7 +663,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
